--- a/data/trans_camb/P1803-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Clase-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,39</t>
+          <t>5,18; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 17,25</t>
+          <t>10,43; 17,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,73</t>
+          <t>4,98; 10,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,25</t>
+          <t>14,29; 19,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,53</t>
+          <t>5,61; 9,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,59</t>
+          <t>13,12; 17,89</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,23</t>
+          <t>1,96; 6,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,41</t>
+          <t>5,85; 11,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,32</t>
+          <t>6,03; 12,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 18,86</t>
+          <t>12,53; 18,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,37</t>
+          <t>4,59; 8,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,76</t>
+          <t>9,63; 13,78</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,96</t>
+          <t>3,07; 7,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 76,84</t>
+          <t>9,14; 79,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,95</t>
+          <t>3,59; 11,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,27</t>
+          <t>6,44; 13,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,15</t>
+          <t>3,58; 7,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 73,83</t>
+          <t>9,15; 73,11</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,04</t>
+          <t>3,44; 5,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,64</t>
+          <t>5,31; 8,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,31</t>
+          <t>4,54; 7,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,51</t>
+          <t>4,43; 11,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,33</t>
+          <t>4,22; 6,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,18</t>
+          <t>5,38; 9,16</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,02</t>
+          <t>2,22; 5,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,57</t>
+          <t>4,35; 9,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,1</t>
+          <t>2,91; 6,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,36</t>
+          <t>5,45; 9,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,23</t>
+          <t>3,01; 5,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,8</t>
+          <t>5,59; 8,54</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,33</t>
+          <t>1,77; 6,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,55</t>
+          <t>1,98; 14,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,6</t>
+          <t>2,92; 5,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,41</t>
+          <t>4,16; 7,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,31</t>
+          <t>2,93; 5,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,96</t>
+          <t>3,99; 7,84</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,33</t>
+          <t>3,89; 5,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,12; 36,83</t>
+          <t>8,11; 34,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,32</t>
+          <t>4,77; 6,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,82; 10,66</t>
+          <t>7,89; 10,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,83; 22,6</t>
+          <t>8,78; 25,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1803-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
